--- a/S_PM_07.xlsx
+++ b/S_PM_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoldeyck\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C4EAE2-50EA-4656-8E39-E2999CF2C7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622AC559-8872-4AC5-B7CE-44B3A1D35EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3676310C-B021-4074-B188-6F9E35315781}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>project total estimated budget(planned value)</t>
   </si>
@@ -57,22 +57,85 @@
     <t>team logged hours (actual value)</t>
   </si>
   <si>
-    <t>1400 hr</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>real time elapsed</t>
+    <t>Required:</t>
+  </si>
+  <si>
+    <t>plot achart that compares the actual cost with the corresponding earning value?</t>
+  </si>
+  <si>
+    <t>Given:</t>
+  </si>
+  <si>
+    <t>Solution:</t>
+  </si>
+  <si>
+    <t>Before plot:</t>
+  </si>
+  <si>
+    <t>what is the expected life time of the project?</t>
+  </si>
+  <si>
+    <t>*assume one engineer in one month spends 150 working hr and team size is 5</t>
+  </si>
+  <si>
+    <t>*given life time of the project is 10,000 hr</t>
+  </si>
+  <si>
+    <t>*life time of the project = 10,000/(5x150)=13.33 month</t>
+  </si>
+  <si>
+    <t>*we add 10% due to contangency, life time of project become 15 month</t>
+  </si>
+  <si>
+    <t>where are we in the life time of the project?</t>
+  </si>
+  <si>
+    <t>*assume we are at 50% of project life time at the month 7.5</t>
+  </si>
+  <si>
+    <t>table of plot</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Planned Value</t>
+  </si>
+  <si>
+    <t>actual cost</t>
+  </si>
+  <si>
+    <t>yes we are over the budget by 1500 (7000-5500)</t>
+  </si>
+  <si>
+    <t>no we are ahead by 5%(500hr)</t>
+  </si>
+  <si>
+    <t>*at 50% of project life time the progress is 55%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -87,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,17 +158,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,314 +322,102 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="303918968"/>
-        <c:axId val="303920280"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="303918968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="303920280"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="303920280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="303918968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25394488188976377"/>
+          <c:y val="2.7777777777777776E-2"/>
+          <c:w val="0.70161067366579177"/>
+          <c:h val="0.66240084572761737"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>actual cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I:$I</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$H$3:$H$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$H$3:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1400</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$J$3:$J$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$3:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>7000</c:v>
                 </c:pt>
               </c:numCache>
@@ -453,62 +426,90 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-64E1-4FDE-B715-73FA6A1FE778}"/>
+              <c16:uniqueId val="{0000000C-3B30-4A34-904B-3D76DAA5A564}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="5"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>earned value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I:$I</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$H$3:$H$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$H$3:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1400</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$K$3:$K$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$K$3:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3920</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>5500</c:v>
                 </c:pt>
               </c:numCache>
@@ -517,7 +518,102 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-64E1-4FDE-B715-73FA6A1FE778}"/>
+              <c16:uniqueId val="{0000000D-3B30-4A34-904B-3D76DAA5A564}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$H$3:$H$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$3:$I$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$3:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-3B30-4A34-904B-3D76DAA5A564}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -529,17 +625,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="381253496"/>
-        <c:axId val="487209000"/>
+        <c:axId val="485168664"/>
+        <c:axId val="485166696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381253496"/>
+        <c:axId val="485168664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (month)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.82368066491688541"/>
+              <c:y val="0.59627296587926504"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -577,7 +742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487209000"/>
+        <c:crossAx val="485166696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -585,26 +750,68 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="487209000"/>
+        <c:axId val="485166696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -636,10 +843,49 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381253496"/>
+        <c:crossAx val="485168664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -648,37 +894,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -763,48 +978,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -912,11 +1087,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -927,11 +1097,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -963,9 +1128,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1319,543 +1481,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BC25D7-47AE-473C-A24D-1A6E1BA958F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D760DD3-7D0F-44F4-8D96-C46C271171D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,42 +1514,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4101BB4C-F694-43D1-9028-80C07F23C3C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2209,160 +1819,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72983C0-09B1-45C8-ADDA-A1C628B2E484}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K5"/>
+      <selection activeCell="F9" sqref="F9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I2">
+      <c r="G3" s="7"/>
+      <c r="H3" s="11">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="I3" s="12">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="J3" s="12">
         <v>0</v>
       </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3">
-        <v>3000</v>
-      </c>
-      <c r="K3">
-        <v>1960</v>
+      <c r="H4" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="I4" s="12">
+        <v>5000</v>
+      </c>
+      <c r="J4" s="12">
+        <v>7000</v>
+      </c>
+      <c r="K4" s="13">
+        <v>5500</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" t="s">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14">
+        <v>15</v>
+      </c>
+      <c r="I5" s="15">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>1000</v>
-      </c>
-      <c r="J4">
-        <v>6000</v>
-      </c>
-      <c r="K4">
-        <v>3920</v>
-      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>1400</v>
-      </c>
-      <c r="J5">
-        <v>7000</v>
-      </c>
-      <c r="K5">
-        <v>5500</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="19">
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>